--- a/docs/03_要件定義/ユースケース一覧.xlsx
+++ b/docs/03_要件定義/ユースケース一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r/Documents/fastapi/docs/03_システム要件定義/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r/Documents/fastapi/docs/03_要件定義/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43063D2-BB79-B04A-B3C4-17E8EA5B8C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{224258C1-8072-924A-BB56-C92682679EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="26600" windowHeight="16420" xr2:uid="{E7424110-E1E2-2148-A9C6-48309EF862B4}"/>
+    <workbookView xWindow="58700" yWindow="-8280" windowWidth="26600" windowHeight="16420" xr2:uid="{E7424110-E1E2-2148-A9C6-48309EF862B4}"/>
   </bookViews>
   <sheets>
     <sheet name="UC一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
   <si>
     <t>UCID</t>
     <phoneticPr fontId="1"/>
@@ -165,372 +165,445 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>制約条件を除外する</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">セイヤクジョウケンヲ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジョガイスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約条件を課す（組み込み）</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジョウケンヲ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">エランデ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カス </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">クミコミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約条件を課す（チャット）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイヤク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジョウケンヲ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カス </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>（</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間時間割編成</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ネンカン </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ジカンワリ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヘンセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約条件の内容を変更する（組み込み）</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">セイヤクジョウケｎ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ナイヨウヲ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヘンコウスル </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">クミコミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約条件の内容を変更する（チャット）</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">セイヤクジョウケｎ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ナイヨウヲ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヘンコウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマを入れ替える</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">イレカエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認前の時間割をダウンロードする</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショウニｎ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">マエノ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ジカンワリヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割を承認する</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジカンワリヲ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショウニンスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間データ確認修正</t>
+    <rPh sb="2" eb="4">
+      <t>データク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カクニｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日時限を修正する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨウビジゲンヲ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">シュウセイスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員情報を編集する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キョウインジョウホウヲ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヘンシュウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠を編集する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キンタイヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ヘンシュウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員を削除する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウインヲサクジョスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科目情報を編集する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カモクジョウホウヲ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヘンシュウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科目を削除する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カモクヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">サクジョスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講座を編集する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コウザヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ヘンシュウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講座を削除する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウザヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">サクジョスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックを削除する</t>
+    <rPh sb="0" eb="2">
+      <t>ブロックヲス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">サクジョスウｒ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学級を削除する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガッキュウヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">サクジョスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割をダウンロードする</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジカンワリヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割をアーカイブする</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジカンワリヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーカイブした時間割を稼働中にする</t>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">ジカンワリヲ </t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t xml:space="preserve">カドウチュウニスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割一覧操作</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジカンワリ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">イチラン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ソウサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0202</t>
+  </si>
+  <si>
+    <t>UC0203</t>
+  </si>
+  <si>
+    <t>UC0204</t>
+  </si>
+  <si>
+    <t>UC0205</t>
+  </si>
+  <si>
+    <t>UC0206</t>
+  </si>
+  <si>
+    <t>UC0207</t>
+  </si>
+  <si>
+    <t>UC0208</t>
+  </si>
+  <si>
+    <t>UC0209</t>
+  </si>
+  <si>
+    <t>UC0210</t>
+  </si>
+  <si>
+    <t>UC0211</t>
+  </si>
+  <si>
+    <t>UC0301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0302</t>
+  </si>
+  <si>
+    <t>UC0303</t>
+  </si>
+  <si>
+    <t>UC0304</t>
+  </si>
+  <si>
+    <t>UC0305</t>
+  </si>
+  <si>
+    <t>UC0306</t>
+  </si>
+  <si>
+    <t>UC0307</t>
+  </si>
+  <si>
+    <t>UC0308</t>
+  </si>
+  <si>
+    <t>UC0309</t>
+  </si>
+  <si>
+    <t>UC0310</t>
+  </si>
+  <si>
+    <t>UC0401</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0402</t>
+  </si>
+  <si>
+    <t>UC0403</t>
+  </si>
+  <si>
+    <t>UC0102</t>
+  </si>
+  <si>
+    <t>UC0103</t>
+  </si>
+  <si>
+    <t>UC0104</t>
+  </si>
+  <si>
+    <t>UC0105</t>
+  </si>
+  <si>
+    <t>UC0106</t>
+  </si>
+  <si>
+    <t>UC0107</t>
+  </si>
+  <si>
     <t>制約条件を緩和する</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">セイヤクジョウケンヲ </t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t xml:space="preserve">カンワスｒ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制約条件を除外する</t>
-    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カンワスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学級ビューを見る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガッキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員ビューを見る</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウイン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ミル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教室ビューを見る</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウシツ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ミル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計ビューを見る</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウケイビューヲ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ミル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0212</t>
+  </si>
+  <si>
+    <t>UC0213</t>
+  </si>
+  <si>
+    <t>UC0214</t>
+  </si>
+  <si>
+    <t>UC0215</t>
+  </si>
+  <si>
+    <t>UC0211</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間時間割編成</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ネンカンジカンワリ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ヘンセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約条件を追加する</t>
+    <rPh sb="0" eb="1">
       <t xml:space="preserve">セイヤクジョウケンヲ </t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t xml:space="preserve">ジョガイスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制約条件を課す（組み込み）</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ジョウケンヲ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">エランデ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">カス </t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">クミコミ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制約条件を課す（チャット）</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">セイヤク </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ジョウケンヲ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">カス </t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>（</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年間時間割編成</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ネンカン </t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t xml:space="preserve">ジカンワリ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ヘンセイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制約条件の内容を変更する（組み込み）</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">セイヤクジョウケｎ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ナイヨウヲ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ヘンコウスル </t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">クミコミ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制約条件の内容を変更する（チャット）</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">セイヤクジョウケｎ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ナイヨウヲ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ヘンコウスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマを入れ替える</t>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">イレカエル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認前の時間割をダウンロードする</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ショウニｎ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">マエノ </t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t xml:space="preserve">ジカンワリヲ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間割を承認する</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ジカンワリヲ </t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ショウニンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年間データ確認修正</t>
-    <rPh sb="2" eb="4">
-      <t>データク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">カクニｎ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">シュウセイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>曜日時限を修正する</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ヨウビジゲンヲ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">シュウセイスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教員情報を編集する</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">キョウインジョウホウヲ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ヘンシュウスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠を編集する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キンタイヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ヘンシュウスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教員を削除する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キョウインヲサクジョスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>科目情報を編集する</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">カモクジョウホウヲ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ヘンシュウスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>科目を削除する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カモクヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">サクジョスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講座を編集する</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">コウザヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ヘンシュウスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講座を削除する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウザヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">サクジョスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックを削除する</t>
-    <rPh sb="0" eb="2">
-      <t>ブロックヲス</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">サクジョスウｒ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学級を削除する</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ガッキュウヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">サクジョスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間割をダウンロードする</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ジカンワリヲ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間割をアーカイブする</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ジカンワリヲ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アーカイブした時間割を稼働中にする</t>
-    <rPh sb="7" eb="10">
-      <t xml:space="preserve">ジカンワリヲ </t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t xml:space="preserve">カドウチュウニスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間割一覧操作</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ジカンワリ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">イチラン </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ソウサ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UC0101</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UC0201</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UC0202</t>
-  </si>
-  <si>
-    <t>UC0203</t>
-  </si>
-  <si>
-    <t>UC0204</t>
-  </si>
-  <si>
-    <t>UC0205</t>
-  </si>
-  <si>
-    <t>UC0206</t>
-  </si>
-  <si>
-    <t>UC0207</t>
-  </si>
-  <si>
-    <t>UC0208</t>
-  </si>
-  <si>
-    <t>UC0209</t>
-  </si>
-  <si>
-    <t>UC0210</t>
-  </si>
-  <si>
-    <t>UC0211</t>
-  </si>
-  <si>
-    <t>UC0301</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UC0302</t>
-  </si>
-  <si>
-    <t>UC0303</t>
-  </si>
-  <si>
-    <t>UC0304</t>
-  </si>
-  <si>
-    <t>UC0305</t>
-  </si>
-  <si>
-    <t>UC0306</t>
-  </si>
-  <si>
-    <t>UC0307</t>
-  </si>
-  <si>
-    <t>UC0308</t>
-  </si>
-  <si>
-    <t>UC0309</t>
-  </si>
-  <si>
-    <t>UC0310</t>
-  </si>
-  <si>
-    <t>UC0401</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UC0402</t>
-  </si>
-  <si>
-    <t>UC0403</t>
-  </si>
-  <si>
-    <t>UC0102</t>
-  </si>
-  <si>
-    <t>UC0103</t>
-  </si>
-  <si>
-    <t>UC0104</t>
-  </si>
-  <si>
-    <t>UC0105</t>
-  </si>
-  <si>
-    <t>UC0106</t>
-  </si>
-  <si>
-    <t>UC0107</t>
+      <t xml:space="preserve">ツイカスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -923,9 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D772248-C8D5-D743-9395-869BE8DE3590}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -946,7 +1021,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -957,7 +1032,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -968,7 +1043,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -979,7 +1054,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -990,7 +1065,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1001,7 +1076,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1012,7 +1087,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1023,32 +1098,32 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1056,10 +1131,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1067,222 +1142,277 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/03_要件定義/ユースケース一覧.xlsx
+++ b/docs/03_要件定義/ユースケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r/Documents/fastapi/docs/03_要件定義/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{224258C1-8072-924A-BB56-C92682679EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0493DA4-7F8D-ED4D-A088-93B310C0154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58700" yWindow="-8280" windowWidth="26600" windowHeight="16420" xr2:uid="{E7424110-E1E2-2148-A9C6-48309EF862B4}"/>
+    <workbookView xWindow="8320" yWindow="720" windowWidth="20480" windowHeight="16420" xr2:uid="{E7424110-E1E2-2148-A9C6-48309EF862B4}"/>
   </bookViews>
   <sheets>
     <sheet name="UC一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>UCID</t>
     <phoneticPr fontId="1"/>
@@ -118,16 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学級を追加する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガッキュウヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ツイカスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロックを追加する</t>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ツイカスル </t>
@@ -461,9 +451,6 @@
     <t>UC0210</t>
   </si>
   <si>
-    <t>UC0211</t>
-  </si>
-  <si>
     <t>UC0301</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -512,9 +499,6 @@
   </si>
   <si>
     <t>UC0104</t>
-  </si>
-  <si>
-    <t>UC0105</t>
   </si>
   <si>
     <t>UC0106</t>
@@ -602,6 +586,30 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ツイカスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0216</t>
+  </si>
+  <si>
+    <t>UC0105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC0108</t>
+  </si>
+  <si>
+    <t>カリキュラムを登録する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学級を登録する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガッキュウヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">トウロク </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -996,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D772248-C8D5-D743-9395-869BE8DE3590}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1021,7 +1029,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1032,7 +1040,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1043,7 +1051,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1054,7 +1062,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1065,354 +1073,365 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
         <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
